--- a/biology/Botanique/Monotrema/Monotrema.xlsx
+++ b/biology/Botanique/Monotrema/Monotrema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monotrema est un genre de la famille des Rapateaceae. Il contient trois à cinq espèces. Ce sont des plantes monocotylédones, herbacées, rhizomateuses de Amérique du Sud tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Attention à la confusion, chez les mammifères, il existe un ordre nommé Monotremata. C'est l'ordre des monotrèmes</t>
         </is>
@@ -541,15 +555,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 Jul 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 Jul 2010) :
 Monotrema aemulans Körn. (1972)
 Monotrema × affine Maguire (1958)
 Monotrema arthrophyllum (Seub.) Maguire (1958)
 Monotrema bracteatum Maguire (1958)
 Monotrema xyridoides Gleason (1931)
-Selon NCBI  (16 Jul 2010)[2] :
+Selon NCBI  (16 Jul 2010) :
 Monotrema bracteatum
 Monotrema xyridoides</t>
         </is>
